--- a/test_case_data/测试用例.xlsx
+++ b/test_case_data/测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口列表" sheetId="4" r:id="rId1"/>
@@ -13,9 +13,9 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc13070" localSheetId="1">接口功能!#REF!</definedName>
-    <definedName name="_Toc16104" localSheetId="0">接口列表!$A$3</definedName>
-    <definedName name="_Toc18842" localSheetId="0">接口列表!$A$8</definedName>
-    <definedName name="_Toc25365" localSheetId="0">接口列表!$A$4</definedName>
+    <definedName name="_Toc16104" localSheetId="0">接口列表!$A$4</definedName>
+    <definedName name="_Toc18842" localSheetId="0">接口列表!$A$9</definedName>
+    <definedName name="_Toc25365" localSheetId="0">接口列表!$A$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="347">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,11 +125,6 @@
   </si>
   <si>
     <t>系统根据用户的选择，进入相应的流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1  输入IC卡
-2.输入业务序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -200,23 +195,6 @@
   </si>
   <si>
     <t>1.{"cardNo":1001}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.{"cardNo":}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.{"cardNo":1000}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.{"cardNo":100*}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.{"cardNo":1001
-"v":1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1081,13 +1059,6 @@
 "numOfRMB":10}
 {"typeOfRMB":50,
 "numOfRMB":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"typeOfRMB":50,
-"numOfRMB":20
-{"tradeTime":20180416090000,
-"typeOfOperation":1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1943,6 +1914,54 @@
 {"newPwd":11111,
  "newPwd2":11111}
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"typeOfRMB":50,
+"numOfRMB":20}
+{"tradeTime":20180416090000,
+"typeOfOperation":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cardNo":"100*"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cardNo":1001}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cardNo":1000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cardNo":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cardNo":1001
+"v":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入IC卡
+2.输入业务序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入IC卡
+2.输入业务序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入IC卡
+2.输入业务序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入IC卡
+2.输入业务序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2400,10 +2419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2414,263 +2433,286 @@
     <col min="5" max="5" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C7" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C15" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C16" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2681,12 +2723,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130:XFD137"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2697,84 +2736,74 @@
     <col min="6" max="7" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>61</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2784,165 +2813,165 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+        <v>12</v>
+      </c>
       <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -2952,119 +2981,120 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B20" t="s">
         <v>1</v>
       </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
         <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
         <v>25</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>9</v>
+      <c r="A25" s="3">
+        <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>344</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
@@ -3072,98 +3102,97 @@
     </row>
     <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>346</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>14</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>27</v>
+        <v>345</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+        <v>12</v>
+      </c>
       <c r="E33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -3173,119 +3202,119 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>15</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>15</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
         <v>16</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>80</v>
+      <c r="B39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+        <v>12</v>
+      </c>
       <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -3295,306 +3324,306 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
         <v>0</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B47" t="s">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C47" t="s">
         <v>2</v>
       </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>17</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>17</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>252</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>27</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>28</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>29</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>30</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>26</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>27</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>28</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>29</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D61" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>31</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+    </row>
+    <row r="63" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="F68" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
+        <v>12</v>
+      </c>
       <c r="E69" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
@@ -3604,125 +3633,125 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
         <v>0</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B73" t="s">
         <v>1</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C73" t="s">
         <v>2</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D73" t="s">
         <v>3</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E73" t="s">
         <v>4</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F73" t="s">
         <v>5</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>32</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D75" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>33</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="78" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
       <c r="E78" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E79" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
     </row>
     <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
     </row>
     <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -3732,165 +3761,165 @@
     </row>
     <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-    </row>
-    <row r="84" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A85">
+    <row r="84" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>34</v>
       </c>
+      <c r="B84" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>35</v>
+      </c>
       <c r="B85" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D85" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
-        <v>38</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
       <c r="E91" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="E92" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
     </row>
     <row r="94" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
     </row>
     <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
@@ -3900,312 +3929,312 @@
     </row>
     <row r="96" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>39</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>40</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-    </row>
-    <row r="97" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>39</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="D98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>41</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>42</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
-        <v>40</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
-        <v>41</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>43</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
-        <v>42</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>46</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>47</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>48</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>49</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>50</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>51</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
-        <v>45</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
-        <v>46</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
-        <v>47</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
-        <v>48</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
-        <v>49</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="D109" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>52</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
-        <v>50</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="D110" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>53</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
-        <v>51</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
-        <v>52</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="D111" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
-        <v>53</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
       <c r="E114" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="E115" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
     </row>
     <row r="117" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
     </row>
     <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
@@ -4215,207 +4244,207 @@
     </row>
     <row r="119" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-    </row>
-    <row r="120" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E119" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F119" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G119" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A121">
+    <row r="120" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A120">
         <v>54</v>
       </c>
+      <c r="B120" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D120" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>55</v>
+      </c>
       <c r="B121" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D121" t="s">
         <v>143</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D125" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
-        <v>61</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
       <c r="E130" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="E131" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
     </row>
     <row r="133" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
     </row>
     <row r="134" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C134" s="16"/>
       <c r="D134" s="16"/>
@@ -4425,52 +4454,53 @@
     </row>
     <row r="135" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B135" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>61</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D136" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>61</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16"/>
-    </row>
-    <row r="136" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>61</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D137" t="s">
-        <v>155</v>
+      <c r="D137" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
@@ -4478,13 +4508,13 @@
         <v>61</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="D138" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
@@ -4492,13 +4522,13 @@
         <v>61</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
@@ -4506,13 +4536,13 @@
         <v>61</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
@@ -4520,13 +4550,13 @@
         <v>61</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
@@ -4534,13 +4564,13 @@
         <v>61</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
@@ -4548,68 +4578,54 @@
         <v>61</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A144" s="3">
-        <v>61</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B93:G93"/>
     <mergeCell ref="B94:G94"/>
     <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B134:G134"/>
     <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B133:G133"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4621,8 +4637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:XFD104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4649,7 +4665,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -4657,7 +4673,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4686,7 +4702,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -4699,7 +4715,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -4735,13 +4751,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -4749,13 +4765,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4778,7 +4794,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -4786,7 +4802,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -4821,7 +4837,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -4834,7 +4850,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -4870,13 +4886,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>231</v>
+        <v>337</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -4887,13 +4903,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -4904,13 +4920,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -4921,13 +4937,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -4938,13 +4954,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -4955,13 +4971,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -4972,13 +4988,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -4989,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -5023,7 +5039,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -5052,7 +5068,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -5065,7 +5081,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -5101,13 +5117,13 @@
         <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="13" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
@@ -5115,13 +5131,13 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5129,13 +5145,13 @@
         <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5143,13 +5159,13 @@
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>248</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -5174,7 +5190,7 @@
         <v>16</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -5182,7 +5198,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>17</v>
@@ -5206,7 +5222,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -5219,7 +5235,7 @@
         <v>15</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -5252,10 +5268,10 @@
     </row>
     <row r="46" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="13" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
@@ -5263,13 +5279,13 @@
         <v>15</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5277,13 +5293,13 @@
         <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -5291,13 +5307,13 @@
         <v>17</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5305,13 +5321,13 @@
         <v>18</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -5319,13 +5335,13 @@
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -5333,13 +5349,13 @@
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -5364,7 +5380,7 @@
         <v>16</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -5372,7 +5388,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>17</v>
@@ -5396,7 +5412,7 @@
         <v>14</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
@@ -5409,7 +5425,7 @@
         <v>15</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
@@ -5445,13 +5461,13 @@
         <v>21</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -5459,13 +5475,13 @@
         <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -5473,13 +5489,13 @@
         <v>23</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="13" customFormat="1" ht="114" x14ac:dyDescent="0.2">
@@ -5487,13 +5503,13 @@
         <v>24</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="114" x14ac:dyDescent="0.2">
@@ -5501,13 +5517,13 @@
         <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5515,13 +5531,13 @@
         <v>26</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5529,13 +5545,13 @@
         <v>27</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5543,13 +5559,13 @@
         <v>28</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5557,13 +5573,13 @@
         <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
@@ -5571,13 +5587,13 @@
         <v>30</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="13" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
@@ -5585,13 +5601,13 @@
         <v>31</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -5616,7 +5632,7 @@
         <v>16</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -5624,7 +5640,7 @@
         <v>12</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>17</v>
@@ -5648,7 +5664,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
@@ -5661,7 +5677,7 @@
         <v>15</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -5694,13 +5710,13 @@
     </row>
     <row r="80" spans="1:7" s="13" customFormat="1" ht="171" x14ac:dyDescent="0.2">
       <c r="B80" s="13" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -5708,13 +5724,13 @@
         <v>32</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5722,13 +5738,13 @@
         <v>33</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -5736,13 +5752,13 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -5750,13 +5766,13 @@
         <v>35</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -5764,13 +5780,13 @@
         <v>36</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -5778,13 +5794,13 @@
         <v>37</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -5809,7 +5825,7 @@
         <v>16</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -5817,7 +5833,7 @@
         <v>12</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E90" s="13" t="s">
         <v>17</v>
@@ -5841,7 +5857,7 @@
         <v>14</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
@@ -5854,7 +5870,7 @@
         <v>15</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
@@ -5890,13 +5906,13 @@
         <v>61</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5904,13 +5920,13 @@
         <v>61</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
@@ -5918,13 +5934,13 @@
         <v>61</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="114" x14ac:dyDescent="0.2">
@@ -5932,13 +5948,13 @@
         <v>61</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
@@ -5946,13 +5962,13 @@
         <v>61</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="14" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
@@ -5960,13 +5976,13 @@
         <v>61</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
@@ -5974,13 +5990,13 @@
         <v>61</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
@@ -5988,13 +6004,13 @@
         <v>61</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="14" customFormat="1" ht="256.5" x14ac:dyDescent="0.2">
@@ -6002,13 +6018,13 @@
         <v>61</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="14" customFormat="1" ht="256.5" x14ac:dyDescent="0.2">
@@ -6016,17 +6032,37 @@
         <v>61</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B2:D2"/>
@@ -6035,26 +6071,6 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_case_data/测试用例.xlsx
+++ b/test_case_data/测试用例.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="348">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1962,6 +1962,10 @@
   <si>
     <t>1.输入IC卡
 2.输入业务序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾平</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2039,7 +2043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2064,6 +2068,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2725,7 +2730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2751,9 +2758,9 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" t="s">
         <v>16</v>
       </c>
@@ -2765,9 +2772,9 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -2776,40 +2783,40 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2922,9 +2929,9 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" t="s">
         <v>16</v>
       </c>
@@ -2944,40 +2951,40 @@
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -3143,9 +3150,9 @@
       <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" t="s">
         <v>16</v>
       </c>
@@ -3165,40 +3172,40 @@
       <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -3263,11 +3270,11 @@
       <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
       <c r="E42" t="s">
         <v>16</v>
       </c>
@@ -3287,40 +3294,40 @@
       <c r="A44" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -3574,9 +3581,9 @@
       <c r="A68" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
       <c r="E68" t="s">
         <v>16</v>
       </c>
@@ -3596,40 +3603,40 @@
       <c r="A70" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -3699,9 +3706,9 @@
       <c r="A78" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="3" t="s">
         <v>16</v>
       </c>
@@ -3724,40 +3731,40 @@
       <c r="A80" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
     </row>
     <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
     </row>
     <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
     </row>
     <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
@@ -3867,9 +3874,9 @@
       <c r="A91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
       <c r="E91" s="3" t="s">
         <v>16</v>
       </c>
@@ -3892,40 +3899,40 @@
       <c r="A93" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
     </row>
     <row r="94" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
     </row>
     <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
     </row>
     <row r="96" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
@@ -4182,9 +4189,9 @@
       <c r="A114" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
       <c r="E114" s="3" t="s">
         <v>16</v>
       </c>
@@ -4207,40 +4214,40 @@
       <c r="A116" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
     </row>
     <row r="117" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
     </row>
     <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
     </row>
     <row r="119" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
@@ -4381,6 +4388,9 @@
       <c r="A129" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B129" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="C129" s="3" t="s">
         <v>9</v>
       </c>
@@ -4392,9 +4402,9 @@
       <c r="A130" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
       <c r="E130" s="3" t="s">
         <v>16</v>
       </c>
@@ -4417,40 +4427,40 @@
       <c r="A132" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
     </row>
     <row r="133" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="B133" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
     </row>
     <row r="134" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B134" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
     </row>
     <row r="135" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
@@ -4477,7 +4487,7 @@
     </row>
     <row r="136" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>148</v>
@@ -4491,7 +4501,7 @@
     </row>
     <row r="137" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>148</v>
@@ -4504,8 +4514,8 @@
       </c>
     </row>
     <row r="138" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
-        <v>61</v>
+      <c r="A138" s="16">
+        <v>64</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>148</v>
@@ -4518,8 +4528,8 @@
       </c>
     </row>
     <row r="139" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A139" s="3">
-        <v>61</v>
+      <c r="A139" s="16">
+        <v>65</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>148</v>
@@ -4532,8 +4542,8 @@
       </c>
     </row>
     <row r="140" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
-        <v>61</v>
+      <c r="A140" s="16">
+        <v>66</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>148</v>
@@ -4546,8 +4556,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
-        <v>61</v>
+      <c r="A141" s="16">
+        <v>67</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>148</v>
@@ -4560,8 +4570,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A142" s="3">
-        <v>61</v>
+      <c r="A142" s="16">
+        <v>68</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>148</v>
@@ -4574,8 +4584,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
-        <v>61</v>
+      <c r="A143" s="16">
+        <v>69</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>148</v>
@@ -4589,6 +4599,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B46:G46"/>
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B5:G5"/>
@@ -4605,27 +4636,6 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B133:G133"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4664,11 +4674,11 @@
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
@@ -4688,40 +4698,40 @@
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -4793,11 +4803,11 @@
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
@@ -4823,40 +4833,40 @@
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
@@ -5032,9 +5042,9 @@
       <c r="A28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="13" t="s">
         <v>16</v>
       </c>
@@ -5054,40 +5064,40 @@
       <c r="A30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
@@ -5183,9 +5193,9 @@
       <c r="A40" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="13" t="s">
         <v>16</v>
       </c>
@@ -5208,40 +5218,40 @@
       <c r="A42" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
@@ -5373,9 +5383,9 @@
       <c r="A55" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="13" t="s">
         <v>16</v>
       </c>
@@ -5398,40 +5408,40 @@
       <c r="A57" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
     </row>
     <row r="58" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
@@ -5625,9 +5635,9 @@
       <c r="A74" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
       <c r="E74" s="13" t="s">
         <v>16</v>
       </c>
@@ -5650,40 +5660,40 @@
       <c r="A76" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
     </row>
     <row r="77" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
     </row>
     <row r="78" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
     </row>
     <row r="79" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
@@ -5818,9 +5828,9 @@
       <c r="A89" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="13" t="s">
         <v>16</v>
       </c>
@@ -5843,40 +5853,40 @@
       <c r="A91" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
     </row>
     <row r="92" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
     </row>
     <row r="93" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
     </row>
     <row r="94" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
@@ -6043,26 +6053,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B2:D2"/>
@@ -6071,6 +6061,26 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_case_data/测试用例.xlsx
+++ b/test_case_data/测试用例.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="351">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1965,7 +1965,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>顾平</t>
+    <t>1~5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62~69</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2043,21 +2055,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2068,7 +2072,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2076,6 +2079,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2432,292 +2455,292 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.625" customWidth="1"/>
     <col min="5" max="5" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="10"/>
+      <c r="E19" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2731,1895 +2754,1874 @@
   <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+      <selection activeCell="B132" sqref="B132:G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="7" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="16" customWidth="1"/>
+    <col min="3" max="4" width="23.125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="16" customWidth="1"/>
+    <col min="6" max="7" width="12.375" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="B12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="21" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>6</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>7</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>8</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>9</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>10</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>11</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
+        <v>12</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
+        <v>13</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>14</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C37" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
+        <v>15</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="22">
+        <v>16</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="16">
+        <v>17</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A49" s="16">
+        <v>18</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A50" s="16">
+        <v>19</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A51" s="16">
+        <v>20</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A52" s="16">
+        <v>21</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A53" s="16">
+        <v>22</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A54" s="16">
+        <v>23</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A55" s="16">
+        <v>24</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A56" s="16">
+        <v>25</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A57" s="16">
+        <v>26</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="16">
+        <v>27</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="16">
+        <v>28</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
+        <v>29</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
+        <v>30</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="16">
+        <v>31</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A74" s="16">
+        <v>32</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="16">
+        <v>33</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="16">
+        <v>34</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="16">
+        <v>35</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="16">
+        <v>36</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="16">
+        <v>37</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="16">
+        <v>38</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="16">
         <v>39</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="B97" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="16">
+        <v>40</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="16">
+        <v>41</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="16">
+        <v>42</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="16">
+        <v>43</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="16">
+        <v>44</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="16">
+        <v>45</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="16">
+        <v>46</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="16">
+        <v>47</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="16">
+        <v>48</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A107" s="16">
+        <v>49</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A108" s="16">
+        <v>50</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A109" s="16">
+        <v>51</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A110" s="16">
+        <v>52</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="16">
+        <v>53</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="D119" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>338</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="E119" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>341</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="F119" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="G119" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A120" s="16">
+        <v>54</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A121" s="16">
+        <v>55</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A122" s="16">
+        <v>56</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A123" s="16">
+        <v>57</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A124" s="16">
+        <v>58</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A125" s="16">
+        <v>59</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A126" s="16">
+        <v>60</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A127" s="16">
+        <v>61</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B129" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="C129" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E129" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" t="s">
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="F130" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="s">
+      <c r="B131" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E131" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B132" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B133" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B134" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B135" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C135" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D135" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E135" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F135" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G135" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>10</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>11</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>12</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>13</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>14</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>15</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
-        <v>16</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>17</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>18</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>19</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="1" t="s">
+    <row r="136" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A136" s="16">
         <v>62</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>20</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B136" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A137" s="16">
         <v>63</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>21</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>22</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>23</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>24</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>25</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>26</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>27</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>28</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>29</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>30</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>31</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>32</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>33</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-    </row>
-    <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-    </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-    </row>
-    <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>34</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
-        <v>35</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
-        <v>36</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
-        <v>37</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
-        <v>38</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-    </row>
-    <row r="94" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-    </row>
-    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-    </row>
-    <row r="96" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>39</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
-        <v>40</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
-        <v>41</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
-        <v>42</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
-        <v>43</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
-        <v>44</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
-        <v>45</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
-        <v>46</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
-        <v>47</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
-        <v>48</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
-        <v>49</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
-        <v>50</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
-        <v>51</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
-        <v>52</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
-        <v>53</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-    </row>
-    <row r="117" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-    </row>
-    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-    </row>
-    <row r="119" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>54</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D120" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
-        <v>55</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
-        <v>56</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
-        <v>57</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
-        <v>58</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
-        <v>59</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A126" s="3">
-        <v>60</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
-        <v>61</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-    </row>
-    <row r="133" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="17"/>
-      <c r="G133" s="17"/>
-    </row>
-    <row r="134" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="17"/>
-      <c r="G134" s="17"/>
-    </row>
-    <row r="135" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>62</v>
-      </c>
-      <c r="B136" s="1" t="s">
+      <c r="B137" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D136" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
-        <v>63</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A138" s="16">
         <v>64</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A139" s="16">
         <v>65</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A140" s="16">
         <v>66</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A141" s="16">
         <v>67</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A142" s="16">
         <v>68</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A143" s="16">
         <v>69</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="16" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B46:G46"/>
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B5:G5"/>
@@ -4636,6 +4638,27 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B133:G133"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4659,100 +4682,100 @@
     <col min="5" max="5" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4770,8 +4793,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4780,119 +4803,119 @@
       <c r="C9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="5" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -4901,15 +4924,15 @@
       <c r="C18" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -4918,15 +4941,15 @@
       <c r="C19" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="9">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4935,15 +4958,15 @@
       <c r="C20" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21" s="9">
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -4952,15 +4975,15 @@
       <c r="C21" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="9">
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -4969,15 +4992,15 @@
       <c r="C22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23" s="9">
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -4989,12 +5012,12 @@
       <c r="D23" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+      <c r="A24" s="9">
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -5003,15 +5026,15 @@
       <c r="C24" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="A25" s="9">
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -5020,110 +5043,110 @@
       <c r="C25" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="27" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="27" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="13" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="13" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+    <row r="34" spans="1:7" s="9" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
         <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -5132,12 +5155,12 @@
       <c r="C34" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="13" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -5146,12 +5169,12 @@
       <c r="C35" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="11" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+      <c r="A36" s="9">
         <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -5160,12 +5183,12 @@
       <c r="C36" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="11" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
+      <c r="A37" s="9">
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -5174,118 +5197,118 @@
       <c r="C37" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="11" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+    <row r="40" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="13" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="13" t="s">
+    <row r="46" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="9" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="13" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
+    <row r="47" spans="1:7" s="9" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
         <v>15</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -5294,7 +5317,7 @@
       <c r="C47" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="9" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5313,7 +5336,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
+      <c r="A49" s="9">
         <v>17</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -5327,7 +5350,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
+      <c r="A50" s="9">
         <v>18</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -5341,7 +5364,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="13">
+      <c r="A51" s="9">
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -5355,7 +5378,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="13">
+      <c r="A52" s="9">
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -5368,106 +5391,106 @@
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
+    <row r="54" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+    <row r="55" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="13" t="s">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+    <row r="56" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
+    <row r="57" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-    </row>
-    <row r="59" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-    </row>
-    <row r="60" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="13" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="13">
+    <row r="61" spans="1:7" s="9" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
         <v>21</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -5481,7 +5504,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="13">
+      <c r="A62" s="9">
         <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -5495,7 +5518,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="13">
+      <c r="A63" s="9">
         <v>23</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -5508,8 +5531,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="13" customFormat="1" ht="114" x14ac:dyDescent="0.2">
-      <c r="A64" s="13">
+    <row r="64" spans="1:7" s="9" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
         <v>24</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -5523,7 +5546,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A65" s="13">
+      <c r="A65" s="9">
         <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -5537,7 +5560,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="13">
+      <c r="A66" s="9">
         <v>26</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -5551,7 +5574,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="13">
+      <c r="A67" s="9">
         <v>27</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -5565,7 +5588,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="13">
+      <c r="A68" s="9">
         <v>28</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -5579,7 +5602,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="13">
+      <c r="A69" s="9">
         <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -5593,7 +5616,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="13">
+      <c r="A70" s="9">
         <v>30</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -5606,8 +5629,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="13" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="13">
+    <row r="71" spans="1:7" s="9" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="9">
         <v>31</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -5620,117 +5643,117 @@
         <v>288</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
+    <row r="73" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
+    <row r="74" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="13" t="s">
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
+    <row r="75" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
+    <row r="76" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-    </row>
-    <row r="77" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-    </row>
-    <row r="78" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-    </row>
-    <row r="79" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="13" t="s">
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="F79" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="G79" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="13" customFormat="1" ht="171" x14ac:dyDescent="0.2">
-      <c r="B80" s="13" t="s">
+    <row r="80" spans="1:7" s="9" customFormat="1" ht="171" x14ac:dyDescent="0.2">
+      <c r="B80" s="9" t="s">
         <v>301</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="9" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="13">
+      <c r="A81" s="9">
         <v>32</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -5744,7 +5767,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="13">
+      <c r="A82" s="9">
         <v>33</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -5758,7 +5781,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="13">
+      <c r="A83" s="9">
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -5772,7 +5795,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="13">
+      <c r="A84" s="9">
         <v>35</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -5786,7 +5809,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="13">
+      <c r="A85" s="9">
         <v>36</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -5800,7 +5823,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="13">
+      <c r="A86" s="9">
         <v>37</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -5809,110 +5832,110 @@
       <c r="C86" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="11" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="13" t="s">
+    <row r="88" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E88" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="13" t="s">
+    <row r="89" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="13" t="s">
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="13" t="s">
+      <c r="F89" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
+    <row r="90" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E90" s="13" t="s">
+      <c r="E90" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
+    <row r="91" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-    </row>
-    <row r="92" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="13" t="s">
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+    </row>
+    <row r="92" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-    </row>
-    <row r="93" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="13" t="s">
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-    </row>
-    <row r="94" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="13" t="s">
+      <c r="E94" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="13" t="s">
+      <c r="F94" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="13" t="s">
+      <c r="G94" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="13" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="13">
+    <row r="95" spans="1:7" s="9" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="9">
         <v>61</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -5926,7 +5949,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="13">
+      <c r="A96" s="9">
         <v>61</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -5940,7 +5963,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="13">
+      <c r="A97" s="9">
         <v>61</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -5954,7 +5977,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A98" s="13">
+      <c r="A98" s="9">
         <v>61</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -5968,7 +5991,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="13">
+      <c r="A99" s="9">
         <v>61</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -5977,12 +6000,12 @@
       <c r="C99" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D99" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="14" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="14">
+    <row r="100" spans="1:4" s="10" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="10">
         <v>61</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -5991,12 +6014,12 @@
       <c r="C100" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" s="10" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="13">
+      <c r="A101" s="9">
         <v>61</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -6005,12 +6028,12 @@
       <c r="C101" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D101" s="13" t="s">
+      <c r="D101" s="9" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="14">
+      <c r="A102" s="10">
         <v>61</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -6023,8 +6046,8 @@
         <v>335</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="14" customFormat="1" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="14">
+    <row r="103" spans="1:4" s="10" customFormat="1" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="10">
         <v>61</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -6037,8 +6060,8 @@
         <v>335</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="14" customFormat="1" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="14">
+    <row r="104" spans="1:4" s="10" customFormat="1" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="10">
         <v>61</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -6053,6 +6076,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B2:D2"/>
@@ -6061,26 +6104,6 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_case_data/测试用例.xlsx
+++ b/test_case_data/测试用例.xlsx
@@ -2055,7 +2055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2072,22 +2072,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2099,6 +2085,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2753,1870 +2755,1873 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132:G132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="16" customWidth="1"/>
-    <col min="3" max="4" width="23.125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="16" customWidth="1"/>
-    <col min="6" max="7" width="12.375" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="12.25" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="13" customWidth="1"/>
+    <col min="3" max="4" width="23.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="13" customWidth="1"/>
+    <col min="6" max="7" width="12.375" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
+      <c r="F1" s="20">
+        <v>43234</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="16" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
+      <c r="A8" s="14">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+      <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+      <c r="A10" s="13">
         <v>3</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="A11" s="13">
         <v>4</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+      <c r="A12" s="13">
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+      <c r="A21" s="13">
         <v>6</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
+      <c r="A22" s="13">
         <v>7</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
+      <c r="A23" s="13">
         <v>8</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
+      <c r="A24" s="13">
         <v>9</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
+      <c r="A25" s="13">
         <v>10</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
+      <c r="A26" s="13">
         <v>11</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
+      <c r="A27" s="13">
         <v>12</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+      <c r="A28" s="13">
         <v>13</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
+      <c r="A29" s="13">
         <v>14</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="16" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="16">
+      <c r="A38" s="13">
         <v>15</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="22">
+    <row r="39" spans="1:7" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
         <v>16</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="16" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="16">
+      <c r="A48" s="13">
         <v>17</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A49" s="16">
+      <c r="A49" s="13">
         <v>18</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A50" s="16">
+      <c r="A50" s="13">
         <v>19</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A51" s="16">
+      <c r="A51" s="13">
         <v>20</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A52" s="16">
+      <c r="A52" s="13">
         <v>21</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A53" s="16">
+      <c r="A53" s="13">
         <v>22</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A54" s="16">
+      <c r="A54" s="13">
         <v>23</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A55" s="16">
+      <c r="A55" s="13">
         <v>24</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A56" s="16">
+      <c r="A56" s="13">
         <v>25</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A57" s="16">
+      <c r="A57" s="13">
         <v>26</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="16">
+      <c r="A58" s="13">
         <v>27</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="16">
+      <c r="A59" s="13">
         <v>28</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="16">
+      <c r="A60" s="13">
         <v>29</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="16">
+      <c r="A61" s="13">
         <v>30</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="16">
+      <c r="A62" s="13">
         <v>31</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="16" t="s">
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A74" s="16">
+      <c r="A74" s="13">
         <v>32</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="24" t="s">
+      <c r="C74" s="14"/>
+      <c r="D74" s="18" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="16">
+      <c r="A75" s="13">
         <v>33</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="16" t="s">
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="F78" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="16">
+      <c r="A84" s="13">
         <v>34</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="16">
+      <c r="A85" s="13">
         <v>35</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="16">
+      <c r="A86" s="13">
         <v>36</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="D86" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="16">
+      <c r="A87" s="13">
         <v>37</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D87" s="16" t="s">
+      <c r="D87" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="16">
+      <c r="A88" s="13">
         <v>38</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="D88" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="16" t="s">
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="16" t="s">
+      <c r="F91" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="16" t="s">
+      <c r="D96" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F96" s="16" t="s">
+      <c r="F96" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G96" s="16" t="s">
+      <c r="G96" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="16">
+      <c r="A97" s="13">
         <v>39</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D97" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="16">
+      <c r="A98" s="13">
         <v>40</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D98" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="16">
+      <c r="A99" s="13">
         <v>41</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="D99" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="16">
+      <c r="A100" s="13">
         <v>42</v>
       </c>
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D100" s="20" t="s">
+      <c r="D100" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="16">
+      <c r="A101" s="13">
         <v>43</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D101" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="16">
+      <c r="A102" s="13">
         <v>44</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="20" t="s">
+      <c r="D102" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="16">
+      <c r="A103" s="13">
         <v>45</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D103" s="20" t="s">
+      <c r="D103" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A104" s="16">
+      <c r="A104" s="13">
         <v>46</v>
       </c>
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D104" s="20" t="s">
+      <c r="D104" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="16">
+      <c r="A105" s="13">
         <v>47</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D105" s="20" t="s">
+      <c r="D105" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A106" s="16">
+      <c r="A106" s="13">
         <v>48</v>
       </c>
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D106" s="20" t="s">
+      <c r="D106" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A107" s="16">
+      <c r="A107" s="13">
         <v>49</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D107" s="20" t="s">
+      <c r="D107" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A108" s="16">
+      <c r="A108" s="13">
         <v>50</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D108" s="20" t="s">
+      <c r="D108" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A109" s="16">
+      <c r="A109" s="13">
         <v>51</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D109" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A110" s="16">
+      <c r="A110" s="13">
         <v>52</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D110" s="20" t="s">
+      <c r="D110" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="16">
+      <c r="A111" s="13">
         <v>53</v>
       </c>
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="D111" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C113" s="16" t="s">
+      <c r="C113" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="16" t="s">
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F114" s="16" t="s">
+      <c r="F114" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B117" s="19" t="s">
+      <c r="B117" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="16" t="s">
+      <c r="A118" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B118" s="19" t="s">
+      <c r="B118" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D119" s="16" t="s">
+      <c r="D119" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F119" s="16" t="s">
+      <c r="F119" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G119" s="16" t="s">
+      <c r="G119" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="16">
+      <c r="A120" s="13">
         <v>54</v>
       </c>
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D120" s="16" t="s">
+      <c r="D120" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A121" s="16">
+      <c r="A121" s="13">
         <v>55</v>
       </c>
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C121" s="20" t="s">
+      <c r="C121" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D121" s="16" t="s">
+      <c r="D121" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A122" s="16">
+      <c r="A122" s="13">
         <v>56</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D122" s="16" t="s">
+      <c r="D122" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="16">
+      <c r="A123" s="13">
         <v>57</v>
       </c>
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C123" s="20" t="s">
+      <c r="C123" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D123" s="16" t="s">
+      <c r="D123" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="16">
+      <c r="A124" s="13">
         <v>58</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D124" s="16" t="s">
+      <c r="D124" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A125" s="16">
+      <c r="A125" s="13">
         <v>59</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D125" s="16" t="s">
+      <c r="D125" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A126" s="16">
+      <c r="A126" s="13">
         <v>60</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D126" s="16" t="s">
+      <c r="D126" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A127" s="16">
+      <c r="A127" s="13">
         <v>61</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D127" s="16" t="s">
+      <c r="D127" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="16" t="s">
+      <c r="A129" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C129" s="16" t="s">
+      <c r="C129" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="16" t="s">
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F130" s="16" t="s">
+      <c r="F130" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="16" t="s">
+      <c r="A131" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="16" t="s">
+      <c r="A132" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="16" t="s">
+      <c r="A133" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B133" s="19" t="s">
+      <c r="B133" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="16" t="s">
+      <c r="A134" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="19" t="s">
+      <c r="B134" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="16" t="s">
+      <c r="A135" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C135" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D135" s="16" t="s">
+      <c r="D135" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F135" s="16" t="s">
+      <c r="F135" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G135" s="16" t="s">
+      <c r="G135" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A136" s="16">
+      <c r="A136" s="13">
         <v>62</v>
       </c>
-      <c r="B136" s="20" t="s">
+      <c r="B136" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D136" s="16" t="s">
+      <c r="D136" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A137" s="16">
+      <c r="A137" s="13">
         <v>63</v>
       </c>
-      <c r="B137" s="20" t="s">
+      <c r="B137" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C137" s="20" t="s">
+      <c r="C137" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D137" s="16" t="s">
+      <c r="D137" s="13" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A138" s="16">
+      <c r="A138" s="13">
         <v>64</v>
       </c>
-      <c r="B138" s="20" t="s">
+      <c r="B138" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C138" s="20" t="s">
+      <c r="C138" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D138" s="16" t="s">
+      <c r="D138" s="13" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A139" s="16">
+      <c r="A139" s="13">
         <v>65</v>
       </c>
-      <c r="B139" s="20" t="s">
+      <c r="B139" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C139" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D139" s="16" t="s">
+      <c r="D139" s="13" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A140" s="16">
+      <c r="A140" s="13">
         <v>66</v>
       </c>
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C140" s="20" t="s">
+      <c r="C140" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D140" s="16" t="s">
+      <c r="D140" s="13" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A141" s="16">
+      <c r="A141" s="13">
         <v>67</v>
       </c>
-      <c r="B141" s="20" t="s">
+      <c r="B141" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C141" s="20" t="s">
+      <c r="C141" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D141" s="16" t="s">
+      <c r="D141" s="13" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A142" s="16">
+      <c r="A142" s="13">
         <v>68</v>
       </c>
-      <c r="B142" s="20" t="s">
+      <c r="B142" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C142" s="20" t="s">
+      <c r="C142" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D142" s="16" t="s">
+      <c r="D142" s="13" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A143" s="16">
+      <c r="A143" s="13">
         <v>69</v>
       </c>
-      <c r="B143" s="20" t="s">
+      <c r="B143" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C143" s="20" t="s">
+      <c r="C143" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D143" s="16" t="s">
+      <c r="D143" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4697,11 +4702,11 @@
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4721,40 +4726,40 @@
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -4826,11 +4831,11 @@
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
@@ -4856,40 +4861,40 @@
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -5065,9 +5070,9 @@
       <c r="A28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="9" t="s">
         <v>16</v>
       </c>
@@ -5087,40 +5092,40 @@
       <c r="A30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -5216,9 +5221,9 @@
       <c r="A40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="9" t="s">
         <v>16</v>
       </c>
@@ -5241,40 +5246,40 @@
       <c r="A42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
@@ -5406,9 +5411,9 @@
       <c r="A55" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="9" t="s">
         <v>16</v>
       </c>
@@ -5431,40 +5436,40 @@
       <c r="A57" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
     </row>
     <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
@@ -5658,9 +5663,9 @@
       <c r="A74" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
       <c r="E74" s="9" t="s">
         <v>16</v>
       </c>
@@ -5683,40 +5688,40 @@
       <c r="A76" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
     </row>
     <row r="77" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
     </row>
     <row r="78" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
     </row>
     <row r="79" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
@@ -5851,9 +5856,9 @@
       <c r="A89" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
       <c r="E89" s="9" t="s">
         <v>16</v>
       </c>
@@ -5876,40 +5881,40 @@
       <c r="A91" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
     </row>
     <row r="92" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
     </row>
     <row r="93" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
     </row>
     <row r="94" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">

--- a/test_case_data/测试用例.xlsx
+++ b/test_case_data/测试用例.xlsx
@@ -994,10 +994,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"expectResult": "0","expectSysMessage": "选择成功！"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"tradeTime，typeOfOperation"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1940,11 +1936,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"cardNo":1001
-"v":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.输入IC卡
 2.输入业务序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1978,6 +1969,15 @@
   </si>
   <si>
     <t>62~69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cardNo":"1001",
+"v":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"expectResult": "0","expectSysMessage": "选择成功！"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2097,10 +2097,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2451,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2534,7 +2534,7 @@
         <v>208</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>217</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2591,7 +2591,7 @@
         <v>204</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -2755,8 +2755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2774,7 +2774,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>9</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>2</v>
@@ -2881,7 +2881,7 @@
         <v>160</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>39</v>
@@ -2896,7 +2896,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>7</v>
@@ -2910,7 +2910,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>7</v>
@@ -2924,7 +2924,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>7</v>
@@ -2939,7 +2939,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>7</v>
@@ -2951,7 +2951,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>9</v>
@@ -3049,7 +3049,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>43</v>
@@ -3063,7 +3063,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>44</v>
@@ -3077,7 +3077,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>45</v>
@@ -3091,7 +3091,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>46</v>
@@ -3105,7 +3105,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>47</v>
@@ -3119,7 +3119,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>48</v>
@@ -3133,7 +3133,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>49</v>
@@ -3147,7 +3147,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>50</v>
@@ -3161,7 +3161,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>51</v>
@@ -3392,7 +3392,7 @@
         <v>17</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>69</v>
@@ -3521,7 +3521,7 @@
         <v>90</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>77</v>
@@ -3829,7 +3829,7 @@
         <v>34</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>96</v>
@@ -3843,7 +3843,7 @@
         <v>35</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>97</v>
@@ -3857,7 +3857,7 @@
         <v>36</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>98</v>
@@ -3871,7 +3871,7 @@
         <v>37</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>100</v>
@@ -3885,7 +3885,7 @@
         <v>38</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>101</v>
@@ -4417,7 +4417,7 @@
         <v>8</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>9</v>
@@ -4627,6 +4627,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B46:G46"/>
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B5:G5"/>
@@ -4643,27 +4664,6 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B133:G133"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4726,14 +4726,14 @@
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -4861,14 +4861,14 @@
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -4924,13 +4924,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -4941,13 +4941,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -4958,13 +4958,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4975,13 +4975,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4992,13 +4992,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -5009,13 +5009,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -5026,13 +5026,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -5043,13 +5043,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -5070,9 +5070,9 @@
       <c r="A28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="9" t="s">
         <v>16</v>
       </c>
@@ -5092,14 +5092,14 @@
       <c r="A30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
@@ -5155,13 +5155,13 @@
         <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="9" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
@@ -5169,13 +5169,13 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5183,13 +5183,13 @@
         <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5197,13 +5197,13 @@
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>247</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5221,9 +5221,9 @@
       <c r="A40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="9" t="s">
         <v>16</v>
       </c>
@@ -5246,14 +5246,14 @@
       <c r="A42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
@@ -5306,10 +5306,10 @@
     </row>
     <row r="46" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="9" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
@@ -5317,13 +5317,13 @@
         <v>15</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5331,13 +5331,13 @@
         <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -5345,13 +5345,13 @@
         <v>17</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="D49" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5359,13 +5359,13 @@
         <v>18</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -5373,13 +5373,13 @@
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -5387,13 +5387,13 @@
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5411,9 +5411,9 @@
       <c r="A55" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
       <c r="E55" s="9" t="s">
         <v>16</v>
       </c>
@@ -5436,14 +5436,14 @@
       <c r="A57" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
@@ -5502,10 +5502,10 @@
         <v>107</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -5513,13 +5513,13 @@
         <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -5527,13 +5527,13 @@
         <v>23</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="9" customFormat="1" ht="114" x14ac:dyDescent="0.2">
@@ -5541,13 +5541,13 @@
         <v>24</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="114" x14ac:dyDescent="0.2">
@@ -5555,13 +5555,13 @@
         <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5569,13 +5569,13 @@
         <v>26</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5583,13 +5583,13 @@
         <v>27</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5600,10 +5600,10 @@
         <v>107</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5614,10 +5614,10 @@
         <v>107</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
@@ -5625,13 +5625,13 @@
         <v>30</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="9" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
@@ -5639,13 +5639,13 @@
         <v>31</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5663,9 +5663,9 @@
       <c r="A74" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="9" t="s">
         <v>16</v>
       </c>
@@ -5688,14 +5688,14 @@
       <c r="A76" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
@@ -5748,13 +5748,13 @@
     </row>
     <row r="80" spans="1:7" s="9" customFormat="1" ht="171" x14ac:dyDescent="0.2">
       <c r="B80" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="D80" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -5765,10 +5765,10 @@
         <v>137</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5776,13 +5776,13 @@
         <v>33</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -5790,13 +5790,13 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -5804,13 +5804,13 @@
         <v>35</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -5821,10 +5821,10 @@
         <v>137</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -5835,10 +5835,10 @@
         <v>137</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5856,9 +5856,9 @@
       <c r="A89" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
       <c r="E89" s="9" t="s">
         <v>16</v>
       </c>
@@ -5881,14 +5881,14 @@
       <c r="A91" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
     </row>
     <row r="92" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
@@ -5947,10 +5947,10 @@
         <v>148</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -5958,13 +5958,13 @@
         <v>61</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="D96" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
@@ -5972,13 +5972,13 @@
         <v>61</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="114" x14ac:dyDescent="0.2">
@@ -5986,13 +5986,13 @@
         <v>61</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
@@ -6003,10 +6003,10 @@
         <v>148</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="10" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
@@ -6017,10 +6017,10 @@
         <v>148</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
@@ -6031,10 +6031,10 @@
         <v>148</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>332</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
@@ -6042,13 +6042,13 @@
         <v>61</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="10" customFormat="1" ht="256.5" x14ac:dyDescent="0.2">
@@ -6056,13 +6056,13 @@
         <v>61</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="10" customFormat="1" ht="256.5" x14ac:dyDescent="0.2">
@@ -6070,37 +6070,17 @@
         <v>61</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B2:D2"/>
@@ -6109,6 +6089,26 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
